--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\shawnGitHub\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E609A5E3-CFD2-40A8-87C0-426274EB2197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0914225-B60B-461E-A641-5572D6D9AEEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17080" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17085" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="hashing" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
   <si>
     <t>Problem Name</t>
   </si>
@@ -514,13 +514,15 @@
     <t>https://en.wikipedia.org/wiki/Hash_function</t>
   </si>
   <si>
-    <t>https://codeforces.com/blog/entry/4898(</t>
+    <t>资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://codeforces.com/blog/entry/4898</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.quora.com/q/threadsiiithyderabad/String-Hashing-for-competitive-programming</t>
-  </si>
-  <si>
-    <t>资料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +859,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,23 +1182,24 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.4140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="14" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -1215,7 +1221,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1235,7 +1241,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1255,7 +1261,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1275,7 +1281,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1295,7 +1301,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1315,7 +1321,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1333,7 +1339,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1353,7 +1359,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1371,7 +1377,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1391,7 +1397,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1415,7 +1421,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1435,7 +1441,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1453,7 +1459,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1477,7 +1483,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1497,7 +1503,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1517,7 +1523,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1537,7 +1543,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1557,7 +1563,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1577,7 +1583,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1597,7 +1603,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1617,7 +1623,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1637,7 +1643,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1659,7 +1665,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1679,7 +1685,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1699,7 +1705,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1719,7 +1725,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1741,7 +1747,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1761,7 +1767,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1781,7 +1787,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1801,7 +1807,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1821,7 +1827,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1843,7 +1849,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1863,7 +1869,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1883,7 +1889,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1903,7 +1909,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1923,7 +1929,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1943,7 +1949,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1963,7 +1969,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1983,7 +1989,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2003,7 +2009,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2023,7 +2029,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2043,7 +2049,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2061,7 +2067,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2081,7 +2087,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2101,7 +2107,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2121,7 +2127,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2141,7 +2147,7 @@
       <c r="G47" s="19"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2161,7 +2167,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2181,7 +2187,7 @@
       <c r="G49" s="19"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2201,7 +2207,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -2221,7 +2227,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2241,7 +2247,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -2261,7 +2267,7 @@
       <c r="G53" s="19"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2281,7 +2287,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -2301,7 +2307,7 @@
       <c r="G55" s="19"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2321,7 +2327,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -2341,7 +2347,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2361,7 +2367,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2381,7 +2387,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2401,7 +2407,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2421,7 +2427,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2441,7 +2447,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2461,7 +2467,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2481,7 +2487,7 @@
       <c r="G64" s="17"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2501,7 +2507,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2521,7 +2527,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -2541,7 +2547,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2561,7 +2567,7 @@
       <c r="G68" s="17"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -2581,7 +2587,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2601,7 +2607,7 @@
       <c r="G70" s="17"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -2621,7 +2627,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -2641,7 +2647,7 @@
       <c r="G72" s="17"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -2661,7 +2667,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2681,7 +2687,7 @@
       <c r="G74" s="17"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -2701,7 +2707,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2721,7 +2727,7 @@
       <c r="G76" s="17"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -2741,24 +2747,24 @@
       <c r="G77" s="21"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2840,8 +2846,10 @@
     <hyperlink ref="B75" r:id="rId74" display="http://codeforces.com/problemset/problem/786/D" xr:uid="{E8C2615D-45CF-465C-B729-3EA8323DD479}"/>
     <hyperlink ref="B76" r:id="rId75" display="http://codeforces.com/problemset/problem/350/D" xr:uid="{76357385-DDC8-4356-A196-2A1DDC3917E3}"/>
     <hyperlink ref="B77" r:id="rId76" display="http://codeforces.com/problemset/problem/504/E" xr:uid="{099087B5-27B6-4A22-BC7D-3CC94D8213F1}"/>
+    <hyperlink ref="A81" r:id="rId77" xr:uid="{916CBF74-4882-4BF0-A883-2B45CF706D9D}"/>
+    <hyperlink ref="A82" r:id="rId78" xr:uid="{BADD8499-B61F-4F67-B874-4E7DD198D443}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId79"/>
 </worksheet>
 </file>
--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\shawnGitHub\doc\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0914225-B60B-461E-A641-5572D6D9AEEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE80B4-7791-4103-8358-C796D1259436}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17085" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="hashing" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
   <si>
     <t>Problem Name</t>
   </si>
@@ -525,12 +525,20 @@
     <t>https://www.quora.com/q/threadsiiithyderabad/String-Hashing-for-competitive-programming</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +620,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -791,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +877,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,24 +1202,24 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="14" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="9" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="38.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -1221,7 +1241,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1241,7 +1261,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1261,7 +1281,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1281,7 +1301,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1301,7 +1321,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1321,7 +1341,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1339,7 +1359,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1359,7 +1379,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1377,7 +1397,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1397,7 +1417,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1421,7 +1441,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1441,7 +1461,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1459,7 +1479,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1483,7 +1503,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1503,7 +1523,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1523,7 +1543,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1543,7 +1563,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1563,7 +1583,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1583,7 +1603,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1603,7 +1623,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1623,7 +1643,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1643,7 +1663,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1665,7 +1685,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1685,7 +1705,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1705,7 +1725,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1725,7 +1745,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1741,13 +1761,15 @@
       <c r="E27" s="10">
         <v>5</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19" t="s">
-        <v>152</v>
+      <c r="F27" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1767,7 +1789,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1787,7 +1809,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1807,7 +1829,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1827,7 +1849,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1849,7 +1871,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1869,7 +1891,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1889,7 +1911,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1909,7 +1931,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1929,7 +1951,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1949,7 +1971,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1969,7 +1991,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1989,7 +2011,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="25" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2009,7 +2031,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2029,7 +2051,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2049,7 +2071,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2067,7 +2089,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2087,7 +2109,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2107,7 +2129,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2127,7 +2149,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2147,7 +2169,7 @@
       <c r="G47" s="19"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2167,7 +2189,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2187,7 +2209,7 @@
       <c r="G49" s="19"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2207,7 +2229,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -2227,7 +2249,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2247,7 +2269,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -2267,7 +2289,7 @@
       <c r="G53" s="19"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2287,7 +2309,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -2307,7 +2329,7 @@
       <c r="G55" s="19"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2327,7 +2349,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -2347,7 +2369,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2367,7 +2389,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2387,7 +2409,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2407,7 +2429,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2427,7 +2449,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2447,7 +2469,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2467,7 +2489,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2487,7 +2509,7 @@
       <c r="G64" s="17"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2507,7 +2529,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2527,7 +2549,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -2547,7 +2569,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2567,7 +2589,7 @@
       <c r="G68" s="17"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -2587,7 +2609,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2607,7 +2629,7 @@
       <c r="G70" s="17"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -2627,7 +2649,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -2647,7 +2669,7 @@
       <c r="G72" s="17"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -2667,7 +2689,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2687,7 +2709,7 @@
       <c r="G74" s="17"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -2707,7 +2729,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2727,7 +2749,7 @@
       <c r="G76" s="17"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -2747,22 +2769,22 @@
       <c r="G77" s="21"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>157</v>
       </c>

--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE80B4-7791-4103-8358-C796D1259436}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C17633-E838-4457-85CE-38A158B21990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="162">
   <si>
     <t>Problem Name</t>
   </si>
@@ -531,6 +531,14 @@
   </si>
   <si>
     <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，没用到hashing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +890,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1202,8 +1213,8 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1680,12 +1691,12 @@
         <v>5</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="19" t="s">
-        <v>152</v>
+      <c r="G23" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1702,8 +1713,12 @@
         <v>5</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">

--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C17633-E838-4457-85CE-38A158B21990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37222E17-0DD0-45B8-A445-A36C20FCF253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
@@ -546,7 +546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,8 +634,24 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +676,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -805,15 +826,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,10 +919,17 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,17 +1243,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E47641-F042-4275-BA3C-D3AD6CF1AEE9}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.08203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="14" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="15" bestFit="1" customWidth="1"/>
@@ -1690,7 +1721,7 @@
       <c r="E23" s="10">
         <v>5</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="24" t="s">
         <v>158</v>
       </c>
@@ -1716,7 +1747,7 @@
       <c r="G24" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="28" t="s">
         <v>161</v>
       </c>
     </row>

--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37222E17-0DD0-45B8-A445-A36C20FCF253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A371762-4DF9-4BFB-A2A7-BC4C5CC81FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
   <si>
     <t>Problem Name</t>
   </si>
@@ -539,6 +539,22 @@
   </si>
   <si>
     <t>双指针，没用到hashing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用到hashing，找规律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress Words</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codeforces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codeforces Round #578 (Div. 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -781,21 +797,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -837,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,15 +872,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,12 +896,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +922,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1241,11 +1245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E47641-F042-4275-BA3C-D3AD6CF1AEE9}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1255,8 +1259,8 @@
     <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="16384" width="8.58203125" style="1"/>
   </cols>
@@ -1299,8 +1303,8 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1319,8 +1323,8 @@
       <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1339,8 +1343,8 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1359,8 +1363,8 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1379,8 +1383,8 @@
       <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1397,8 +1401,8 @@
       <c r="E7" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.3">
@@ -1417,8 +1421,8 @@
       <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1435,8 +1439,8 @@
       <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1455,8 +1459,8 @@
       <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1475,10 +1479,10 @@
       <c r="E11" s="10">
         <v>3</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H11" s="1"/>
@@ -1499,8 +1503,8 @@
       <c r="E12" s="7">
         <v>3</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1517,8 +1521,8 @@
       <c r="E13" s="10">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -1537,10 +1541,10 @@
       <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>153</v>
       </c>
       <c r="H14" s="1"/>
@@ -1561,8 +1565,8 @@
       <c r="E15" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1581,8 +1585,8 @@
       <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1601,8 +1605,8 @@
       <c r="E17" s="10">
         <v>4</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1621,8 +1625,8 @@
       <c r="E18" s="7">
         <v>4</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1641,8 +1645,8 @@
       <c r="E19" s="10">
         <v>4</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1661,8 +1665,8 @@
       <c r="E20" s="7">
         <v>4</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1681,8 +1685,8 @@
       <c r="E21" s="10">
         <v>4</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1701,8 +1705,8 @@
       <c r="E22" s="7">
         <v>5</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.3">
@@ -1721,8 +1725,8 @@
       <c r="E23" s="10">
         <v>5</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="24" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="23" t="s">
         <v>158</v>
       </c>
       <c r="H23" s="1"/>
@@ -1743,11 +1747,11 @@
       <c r="E24" s="7">
         <v>5</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="27" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1767,8 +1771,8 @@
       <c r="E25" s="10">
         <v>5</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1787,9 +1791,11 @@
       <c r="E26" s="7">
         <v>5</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="1"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
@@ -1807,10 +1813,10 @@
       <c r="E27" s="10">
         <v>5</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>158</v>
       </c>
       <c r="H27" s="1"/>
@@ -1831,8 +1837,8 @@
       <c r="E28" s="7">
         <v>5</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1851,987 +1857,1007 @@
       <c r="E29" s="10">
         <v>5</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="7">
-        <v>6</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="10">
+        <v>5</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="B31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="7">
         <v>6</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="B32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="10">
         <v>6</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
-        <v>152</v>
-      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="B33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="7">
         <v>6</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="B34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="10">
         <v>6</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="B35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="7">
         <v>6</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="10">
         <v>6</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="B37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="7">
         <v>6</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="B38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="10">
         <v>6</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="B39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="7">
         <v>6</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="B40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="10">
         <v>6</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="25" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10">
+      <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="7">
         <v>6</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="19"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="7">
-        <v>7</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
+      <c r="B42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10">
+        <v>6</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="18"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10">
+      <c r="B43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="7">
         <v>7</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="B44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10">
         <v>7</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="B45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="7">
         <v>7</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="B46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="10">
         <v>7</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="B47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="7">
         <v>7</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="B48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="10">
         <v>7</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="B49" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="7">
         <v>7</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="19"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="7">
+      <c r="B50" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="10">
         <v>7</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="B51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="7">
         <v>7</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="B52" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="10">
         <v>7</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="10">
-        <v>8</v>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
+      <c r="B53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="7">
+        <v>7</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="7">
+      <c r="B54" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="10">
         <v>8</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="B55" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="7">
         <v>8</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="7">
+      <c r="B56" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="10">
         <v>8</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="10">
+      <c r="B57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="7">
         <v>8</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="7">
+      <c r="B58" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="10">
         <v>8</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="B59" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="7">
         <v>8</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="7">
+      <c r="B60" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="10">
         <v>8</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="B61" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="7">
         <v>8</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="7">
-        <v>9</v>
-      </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
+      <c r="B62" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="10">
+        <v>8</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="B63" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="7">
         <v>9</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="19"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="7">
+      <c r="B64" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="10">
         <v>9</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="18"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="10">
+      <c r="B65" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="7">
         <v>9</v>
       </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="B66" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="10">
         <v>9</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="10">
+      <c r="B67" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="7">
         <v>9</v>
       </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="16"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" s="7">
+      <c r="B68" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="10">
         <v>9</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="10">
+      <c r="B69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="7">
         <v>9</v>
       </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="16"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="7">
+      <c r="B70" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="10">
         <v>9</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="10">
+      <c r="B71" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="7">
         <v>9</v>
       </c>
-      <c r="F71" s="18"/>
-      <c r="G71" s="19"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" s="7">
+      <c r="B72" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="10">
         <v>9</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="18"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="10">
+      <c r="B73" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="7">
         <v>9</v>
       </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="19"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="16"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E74" s="7">
-        <v>10</v>
-      </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
+      <c r="B74" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="10">
+        <v>9</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="18"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="B75" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="7">
         <v>10</v>
       </c>
-      <c r="F75" s="18"/>
-      <c r="G75" s="19"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="16"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="10">
+        <v>10</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="7" t="s">
+      <c r="C77" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="7">
         <v>10</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="11">
-        <v>76</v>
-      </c>
-      <c r="B77" s="12" t="s">
+      <c r="F77" s="15"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="13" t="s">
+      <c r="C78" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="12">
         <v>10</v>
       </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="79" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2866,58 +2892,59 @@
     <hyperlink ref="B27" r:id="rId26" display="http://codeforces.com/problemset/problem/633/C" xr:uid="{58696075-4E0D-4162-98C4-E1E1F7CF7AB6}"/>
     <hyperlink ref="B28" r:id="rId27" display="http://codeforces.com/problemset/problem/633/D" xr:uid="{899FF653-27F9-464A-A4AB-485BE52A6BB2}"/>
     <hyperlink ref="B29" r:id="rId28" display="http://codeforces.com/problemset/problem/611/D" xr:uid="{DA7F98FD-712A-46A6-A132-3F48C549C138}"/>
-    <hyperlink ref="B30" r:id="rId29" display="http://codeforces.com/problemset/problem/79/C" xr:uid="{CE3D637D-3A4E-49A6-B189-5B7E15DAF735}"/>
-    <hyperlink ref="B31" r:id="rId30" display="http://codeforces.com/problemset/problem/639/C" xr:uid="{51592AF8-ACCB-44BC-B5AC-C4F3CFDB5BFF}"/>
-    <hyperlink ref="B32" r:id="rId31" display="http://codeforces.com/problemset/problem/154/C" xr:uid="{46F331A4-1995-48CF-AF8B-D83387F05583}"/>
-    <hyperlink ref="B33" r:id="rId32" display="http://codeforces.com/problemset/problem/467/D" xr:uid="{710A566C-D633-4BA9-B14A-28DE797B6CEF}"/>
-    <hyperlink ref="B34" r:id="rId33" display="http://codeforces.com/problemset/problem/580/E" xr:uid="{5DDA5E0A-A47A-47E5-AE51-78E6A2D14426}"/>
-    <hyperlink ref="B35" r:id="rId34" display="http://codeforces.com/problemset/problem/39/J" xr:uid="{06C3B6A3-57AF-4AC8-BBB2-5EDA8EC3E24F}"/>
-    <hyperlink ref="B36" r:id="rId35" display="http://codeforces.com/problemset/problem/631/D" xr:uid="{7B217CB1-20FF-46B5-853F-9577B3DDA2D8}"/>
-    <hyperlink ref="B37" r:id="rId36" display="http://codeforces.com/problemset/problem/526/D" xr:uid="{595B0643-5DA6-45D4-A4E1-3FD31231C01F}"/>
-    <hyperlink ref="B38" r:id="rId37" display="http://codeforces.com/problemset/problem/486/E" xr:uid="{166EF539-071D-4AA6-BA48-1D1B05C9A22A}"/>
-    <hyperlink ref="B39" r:id="rId38" display="http://codeforces.com/problemset/problem/25/E" xr:uid="{D3A305FB-84AE-4423-8110-4195F7A433C7}"/>
-    <hyperlink ref="B40" r:id="rId39" display="http://codeforces.com/problemset/problem/128/B" xr:uid="{333D280C-5DCA-4410-BA3E-47A0060244A3}"/>
-    <hyperlink ref="B41" r:id="rId40" display="https://uva.onlinejudge.org/index.php?option=onlinejudge&amp;page=show_problem&amp;problem=4282" xr:uid="{BD2D08FC-1B0D-4673-9066-4780A15DB929}"/>
-    <hyperlink ref="B42" r:id="rId41" display="http://codeforces.com/problemset/problem/567/E" xr:uid="{F0573317-E7CC-4086-8D45-E1F2FBE12EBC}"/>
-    <hyperlink ref="B43" r:id="rId42" display="http://www.spoj.com/problems/VEXPROF/" xr:uid="{559D1C8B-53E7-454F-8AF8-0775A1B3FBE4}"/>
-    <hyperlink ref="B44" r:id="rId43" display="http://codeforces.com/problemset/problem/316/G1" xr:uid="{F44CAED3-DBA6-418D-A16B-ED5334193365}"/>
-    <hyperlink ref="B45" r:id="rId44" display="http://codeforces.com/problemset/problem/869/E" xr:uid="{047C7885-F997-460C-BF7A-E5BBD4A2A7A3}"/>
-    <hyperlink ref="B46" r:id="rId45" display="http://codeforces.com/problemset/problem/425/D" xr:uid="{6C8C63D3-1977-4EF9-8453-EC97788441D0}"/>
-    <hyperlink ref="B47" r:id="rId46" display="http://codeforces.com/problemset/problem/601/D" xr:uid="{54B5AEC8-1E74-4FF4-8C12-04480D1FC9F4}"/>
-    <hyperlink ref="B48" r:id="rId47" display="http://codeforces.com/problemset/problem/190/E" xr:uid="{D2E95542-BE04-42FD-A57B-BDC7F9A16182}"/>
-    <hyperlink ref="B49" r:id="rId48" display="http://codeforces.com/problemset/problem/291/E" xr:uid="{1B78AFF7-29B8-4EA5-AA3D-61DE0331DEC6}"/>
-    <hyperlink ref="B50" r:id="rId49" display="http://codeforces.com/problemset/problem/778/C" xr:uid="{F546A7E8-1C6F-4ED5-A726-28039F26BC7E}"/>
-    <hyperlink ref="B51" r:id="rId50" display="http://codeforces.com/problemset/problem/607/C" xr:uid="{D9605034-0AD7-424F-8BD5-9CC445F08CC1}"/>
-    <hyperlink ref="B52" r:id="rId51" display="http://codeforces.com/problemset/problem/533/F" xr:uid="{A2A380E6-14A2-42B6-A285-A93A3AF3384D}"/>
-    <hyperlink ref="B53" r:id="rId52" display="http://codeforces.com/problemset/problem/898/F" xr:uid="{0C3702BA-617A-4055-AFFE-CF65B5A52B4F}"/>
-    <hyperlink ref="B54" r:id="rId53" display="http://codeforces.com/problemset/problem/30/E" xr:uid="{34286C3D-61A5-4C2A-8AA4-AB1999E5D111}"/>
-    <hyperlink ref="B55" r:id="rId54" display="http://codeforces.com/problemset/problem/213/E" xr:uid="{A3F73648-B25D-4D57-AD3E-417C24F4A13F}"/>
-    <hyperlink ref="B56" r:id="rId55" display="http://codeforces.com/problemset/problem/228/C" xr:uid="{1D5174C2-46CC-45DD-B544-72ABF9B08D6D}"/>
-    <hyperlink ref="B57" r:id="rId56" display="http://codeforces.com/problemset/problem/19/C" xr:uid="{E04AB1FE-C030-478E-8DCD-3FBB95D85FD8}"/>
-    <hyperlink ref="B58" r:id="rId57" display="http://codeforces.com/problemset/problem/444/D" xr:uid="{307E5470-781D-4921-B583-7BF17D07D970}"/>
-    <hyperlink ref="B59" r:id="rId58" display="http://codeforces.com/problemset/problem/54/B" xr:uid="{DA3FEB3A-0F52-4BD5-A242-A3EB37FF3483}"/>
-    <hyperlink ref="B60" r:id="rId59" display="http://codeforces.com/problemset/problem/452/F" xr:uid="{5F209E76-36B3-4FA2-827F-9E5E5BACE839}"/>
-    <hyperlink ref="B61" r:id="rId60" display="http://codeforces.com/problemset/problem/28/D" xr:uid="{B559AD7A-8052-4270-9552-0FDE91117C18}"/>
-    <hyperlink ref="B62" r:id="rId61" display="http://codeforces.com/problemset/problem/524/F" xr:uid="{4A4F27BB-029C-4972-AE36-31BE0FC71112}"/>
-    <hyperlink ref="B63" r:id="rId62" display="http://codeforces.com/problemset/problem/407/D" xr:uid="{72FC2960-CED0-40E8-8F97-0B6BA15EC7CE}"/>
-    <hyperlink ref="B64" r:id="rId63" display="http://codeforces.com/problemset/problem/534/F" xr:uid="{3F9B204F-145E-4B36-991D-6045025451D3}"/>
-    <hyperlink ref="B65" r:id="rId64" display="http://codeforces.com/problemset/problem/319/D" xr:uid="{B430CA85-08CE-4D80-9948-36E64D809267}"/>
-    <hyperlink ref="B66" r:id="rId65" display="http://codeforces.com/problemset/problem/119/D" xr:uid="{89B65B72-5C14-45E6-8C88-4402F94DF77B}"/>
-    <hyperlink ref="B67" r:id="rId66" display="http://codeforces.com/problemset/problem/763/D" xr:uid="{05223B86-587B-44C3-B6A6-48B85ECCD9CA}"/>
-    <hyperlink ref="B68" r:id="rId67" display="http://codeforces.com/problemset/problem/542/D" xr:uid="{D869B891-DE41-428B-8260-05BBCAB18CAF}"/>
-    <hyperlink ref="B69" r:id="rId68" display="http://codeforces.com/problemset/problem/196/D" xr:uid="{E5D46409-DDF2-44BE-BC72-DD1E2DAC1737}"/>
-    <hyperlink ref="B70" r:id="rId69" display="http://codeforces.com/problemset/problem/65/D" xr:uid="{34F1D963-4C2B-432A-8E5C-99D61D9A0295}"/>
-    <hyperlink ref="B71" r:id="rId70" display="http://codeforces.com/problemset/problem/356/E" xr:uid="{9AF26C29-7318-4CB5-881A-212087A3C0D0}"/>
-    <hyperlink ref="B72" r:id="rId71" display="http://codeforces.com/problemset/problem/212/B" xr:uid="{118487F3-0B4C-490D-BFFC-F64F12E6A986}"/>
-    <hyperlink ref="B73" r:id="rId72" display="http://codeforces.com/problemset/problem/534/E" xr:uid="{6569E7A4-3523-4CE1-87F9-7E2B04991BF1}"/>
-    <hyperlink ref="B74" r:id="rId73" display="http://codeforces.com/problemset/problem/613/E" xr:uid="{DA019E89-23F7-4E33-8645-C65D7AD5320E}"/>
-    <hyperlink ref="B75" r:id="rId74" display="http://codeforces.com/problemset/problem/786/D" xr:uid="{E8C2615D-45CF-465C-B729-3EA8323DD479}"/>
-    <hyperlink ref="B76" r:id="rId75" display="http://codeforces.com/problemset/problem/350/D" xr:uid="{76357385-DDC8-4356-A196-2A1DDC3917E3}"/>
-    <hyperlink ref="B77" r:id="rId76" display="http://codeforces.com/problemset/problem/504/E" xr:uid="{099087B5-27B6-4A22-BC7D-3CC94D8213F1}"/>
-    <hyperlink ref="A81" r:id="rId77" xr:uid="{916CBF74-4882-4BF0-A883-2B45CF706D9D}"/>
-    <hyperlink ref="A82" r:id="rId78" xr:uid="{BADD8499-B61F-4F67-B874-4E7DD198D443}"/>
+    <hyperlink ref="B31" r:id="rId29" display="http://codeforces.com/problemset/problem/79/C" xr:uid="{CE3D637D-3A4E-49A6-B189-5B7E15DAF735}"/>
+    <hyperlink ref="B32" r:id="rId30" display="http://codeforces.com/problemset/problem/639/C" xr:uid="{51592AF8-ACCB-44BC-B5AC-C4F3CFDB5BFF}"/>
+    <hyperlink ref="B33" r:id="rId31" display="http://codeforces.com/problemset/problem/154/C" xr:uid="{46F331A4-1995-48CF-AF8B-D83387F05583}"/>
+    <hyperlink ref="B34" r:id="rId32" display="http://codeforces.com/problemset/problem/467/D" xr:uid="{710A566C-D633-4BA9-B14A-28DE797B6CEF}"/>
+    <hyperlink ref="B35" r:id="rId33" display="http://codeforces.com/problemset/problem/580/E" xr:uid="{5DDA5E0A-A47A-47E5-AE51-78E6A2D14426}"/>
+    <hyperlink ref="B36" r:id="rId34" display="http://codeforces.com/problemset/problem/39/J" xr:uid="{06C3B6A3-57AF-4AC8-BBB2-5EDA8EC3E24F}"/>
+    <hyperlink ref="B37" r:id="rId35" display="http://codeforces.com/problemset/problem/631/D" xr:uid="{7B217CB1-20FF-46B5-853F-9577B3DDA2D8}"/>
+    <hyperlink ref="B38" r:id="rId36" display="http://codeforces.com/problemset/problem/526/D" xr:uid="{595B0643-5DA6-45D4-A4E1-3FD31231C01F}"/>
+    <hyperlink ref="B39" r:id="rId37" display="http://codeforces.com/problemset/problem/486/E" xr:uid="{166EF539-071D-4AA6-BA48-1D1B05C9A22A}"/>
+    <hyperlink ref="B40" r:id="rId38" display="http://codeforces.com/problemset/problem/25/E" xr:uid="{D3A305FB-84AE-4423-8110-4195F7A433C7}"/>
+    <hyperlink ref="B41" r:id="rId39" display="http://codeforces.com/problemset/problem/128/B" xr:uid="{333D280C-5DCA-4410-BA3E-47A0060244A3}"/>
+    <hyperlink ref="B42" r:id="rId40" display="https://uva.onlinejudge.org/index.php?option=onlinejudge&amp;page=show_problem&amp;problem=4282" xr:uid="{BD2D08FC-1B0D-4673-9066-4780A15DB929}"/>
+    <hyperlink ref="B43" r:id="rId41" display="http://codeforces.com/problemset/problem/567/E" xr:uid="{F0573317-E7CC-4086-8D45-E1F2FBE12EBC}"/>
+    <hyperlink ref="B44" r:id="rId42" display="http://www.spoj.com/problems/VEXPROF/" xr:uid="{559D1C8B-53E7-454F-8AF8-0775A1B3FBE4}"/>
+    <hyperlink ref="B45" r:id="rId43" display="http://codeforces.com/problemset/problem/316/G1" xr:uid="{F44CAED3-DBA6-418D-A16B-ED5334193365}"/>
+    <hyperlink ref="B46" r:id="rId44" display="http://codeforces.com/problemset/problem/869/E" xr:uid="{047C7885-F997-460C-BF7A-E5BBD4A2A7A3}"/>
+    <hyperlink ref="B47" r:id="rId45" display="http://codeforces.com/problemset/problem/425/D" xr:uid="{6C8C63D3-1977-4EF9-8453-EC97788441D0}"/>
+    <hyperlink ref="B48" r:id="rId46" display="http://codeforces.com/problemset/problem/601/D" xr:uid="{54B5AEC8-1E74-4FF4-8C12-04480D1FC9F4}"/>
+    <hyperlink ref="B49" r:id="rId47" display="http://codeforces.com/problemset/problem/190/E" xr:uid="{D2E95542-BE04-42FD-A57B-BDC7F9A16182}"/>
+    <hyperlink ref="B50" r:id="rId48" display="http://codeforces.com/problemset/problem/291/E" xr:uid="{1B78AFF7-29B8-4EA5-AA3D-61DE0331DEC6}"/>
+    <hyperlink ref="B51" r:id="rId49" display="http://codeforces.com/problemset/problem/778/C" xr:uid="{F546A7E8-1C6F-4ED5-A726-28039F26BC7E}"/>
+    <hyperlink ref="B52" r:id="rId50" display="http://codeforces.com/problemset/problem/607/C" xr:uid="{D9605034-0AD7-424F-8BD5-9CC445F08CC1}"/>
+    <hyperlink ref="B53" r:id="rId51" display="http://codeforces.com/problemset/problem/533/F" xr:uid="{A2A380E6-14A2-42B6-A285-A93A3AF3384D}"/>
+    <hyperlink ref="B54" r:id="rId52" display="http://codeforces.com/problemset/problem/898/F" xr:uid="{0C3702BA-617A-4055-AFFE-CF65B5A52B4F}"/>
+    <hyperlink ref="B55" r:id="rId53" display="http://codeforces.com/problemset/problem/30/E" xr:uid="{34286C3D-61A5-4C2A-8AA4-AB1999E5D111}"/>
+    <hyperlink ref="B56" r:id="rId54" display="http://codeforces.com/problemset/problem/213/E" xr:uid="{A3F73648-B25D-4D57-AD3E-417C24F4A13F}"/>
+    <hyperlink ref="B57" r:id="rId55" display="http://codeforces.com/problemset/problem/228/C" xr:uid="{1D5174C2-46CC-45DD-B544-72ABF9B08D6D}"/>
+    <hyperlink ref="B58" r:id="rId56" display="http://codeforces.com/problemset/problem/19/C" xr:uid="{E04AB1FE-C030-478E-8DCD-3FBB95D85FD8}"/>
+    <hyperlink ref="B59" r:id="rId57" display="http://codeforces.com/problemset/problem/444/D" xr:uid="{307E5470-781D-4921-B583-7BF17D07D970}"/>
+    <hyperlink ref="B60" r:id="rId58" display="http://codeforces.com/problemset/problem/54/B" xr:uid="{DA3FEB3A-0F52-4BD5-A242-A3EB37FF3483}"/>
+    <hyperlink ref="B61" r:id="rId59" display="http://codeforces.com/problemset/problem/452/F" xr:uid="{5F209E76-36B3-4FA2-827F-9E5E5BACE839}"/>
+    <hyperlink ref="B62" r:id="rId60" display="http://codeforces.com/problemset/problem/28/D" xr:uid="{B559AD7A-8052-4270-9552-0FDE91117C18}"/>
+    <hyperlink ref="B63" r:id="rId61" display="http://codeforces.com/problemset/problem/524/F" xr:uid="{4A4F27BB-029C-4972-AE36-31BE0FC71112}"/>
+    <hyperlink ref="B64" r:id="rId62" display="http://codeforces.com/problemset/problem/407/D" xr:uid="{72FC2960-CED0-40E8-8F97-0B6BA15EC7CE}"/>
+    <hyperlink ref="B65" r:id="rId63" display="http://codeforces.com/problemset/problem/534/F" xr:uid="{3F9B204F-145E-4B36-991D-6045025451D3}"/>
+    <hyperlink ref="B66" r:id="rId64" display="http://codeforces.com/problemset/problem/319/D" xr:uid="{B430CA85-08CE-4D80-9948-36E64D809267}"/>
+    <hyperlink ref="B67" r:id="rId65" display="http://codeforces.com/problemset/problem/119/D" xr:uid="{89B65B72-5C14-45E6-8C88-4402F94DF77B}"/>
+    <hyperlink ref="B68" r:id="rId66" display="http://codeforces.com/problemset/problem/763/D" xr:uid="{05223B86-587B-44C3-B6A6-48B85ECCD9CA}"/>
+    <hyperlink ref="B69" r:id="rId67" display="http://codeforces.com/problemset/problem/542/D" xr:uid="{D869B891-DE41-428B-8260-05BBCAB18CAF}"/>
+    <hyperlink ref="B70" r:id="rId68" display="http://codeforces.com/problemset/problem/196/D" xr:uid="{E5D46409-DDF2-44BE-BC72-DD1E2DAC1737}"/>
+    <hyperlink ref="B71" r:id="rId69" display="http://codeforces.com/problemset/problem/65/D" xr:uid="{34F1D963-4C2B-432A-8E5C-99D61D9A0295}"/>
+    <hyperlink ref="B72" r:id="rId70" display="http://codeforces.com/problemset/problem/356/E" xr:uid="{9AF26C29-7318-4CB5-881A-212087A3C0D0}"/>
+    <hyperlink ref="B73" r:id="rId71" display="http://codeforces.com/problemset/problem/212/B" xr:uid="{118487F3-0B4C-490D-BFFC-F64F12E6A986}"/>
+    <hyperlink ref="B74" r:id="rId72" display="http://codeforces.com/problemset/problem/534/E" xr:uid="{6569E7A4-3523-4CE1-87F9-7E2B04991BF1}"/>
+    <hyperlink ref="B75" r:id="rId73" display="http://codeforces.com/problemset/problem/613/E" xr:uid="{DA019E89-23F7-4E33-8645-C65D7AD5320E}"/>
+    <hyperlink ref="B76" r:id="rId74" display="http://codeforces.com/problemset/problem/786/D" xr:uid="{E8C2615D-45CF-465C-B729-3EA8323DD479}"/>
+    <hyperlink ref="B77" r:id="rId75" display="http://codeforces.com/problemset/problem/350/D" xr:uid="{76357385-DDC8-4356-A196-2A1DDC3917E3}"/>
+    <hyperlink ref="B78" r:id="rId76" display="http://codeforces.com/problemset/problem/504/E" xr:uid="{099087B5-27B6-4A22-BC7D-3CC94D8213F1}"/>
+    <hyperlink ref="A82" r:id="rId77" xr:uid="{916CBF74-4882-4BF0-A883-2B45CF706D9D}"/>
+    <hyperlink ref="A83" r:id="rId78" xr:uid="{BADD8499-B61F-4F67-B874-4E7DD198D443}"/>
+    <hyperlink ref="B30" r:id="rId79" xr:uid="{4CA25FF1-13F8-474B-8D4D-ACEA1889835F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId80"/>
 </worksheet>
 </file>
--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A371762-4DF9-4BFB-A2A7-BC4C5CC81FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CDE34-DCA4-45FE-B6E4-3CDBACA30052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
   <si>
     <t>Problem Name</t>
   </si>
@@ -555,6 +555,14 @@
   </si>
   <si>
     <t>Codeforces Round #578 (Div. 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希好题，也可以用kmp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +934,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1248,8 +1256,8 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1878,8 +1886,12 @@
         <v>5</v>
       </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">

--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CDE34-DCA4-45FE-B6E4-3CDBACA30052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2275B086-B37B-4D4F-9718-9A8C0B3E7BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
   <si>
     <t>Problem Name</t>
   </si>
@@ -534,35 +534,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>双指针，没用到hashing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用到hashing，找规律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress Words</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codeforces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codeforces Round #578 (Div. 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>★</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>双指针，没用到hashing</t>
+    <t>哈希好题，也可以用kmp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>没用到hashing，找规律</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress Words</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Codeforces</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Codeforces Round #578 (Div. 2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>★</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈希好题，也可以用kmp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1255,9 +1255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E47641-F042-4275-BA3C-D3AD6CF1AEE9}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1757,10 +1757,10 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
@@ -1802,7 +1802,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
       <c r="H26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>158</v>
@@ -1869,28 +1869,30 @@
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="E30" s="10">
         <v>5</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="G30" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">

--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2275B086-B37B-4D4F-9718-9A8C0B3E7BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C7419-A052-445D-839E-DA292BC466E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="169">
   <si>
     <t>Problem Name</t>
   </si>
@@ -563,6 +563,10 @@
   </si>
   <si>
     <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单dp+容斥原理+哈希</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +939,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1256,8 +1263,8 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1597,7 +1604,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1613,9 +1620,13 @@
       <c r="E17" s="10">
         <v>4</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">

--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C7419-A052-445D-839E-DA292BC466E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF3CD20-A57A-4635-B4D3-39C2BEE512E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
   <si>
     <t>Problem Name</t>
   </si>
@@ -567,6 +567,14 @@
   </si>
   <si>
     <t>简单dp+容斥原理+哈希</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题意不好理解。容易实现哈希。degree[len] = degree[len / 2] + 1;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,9 +935,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1263,8 +1268,8 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1620,7 +1625,7 @@
       <c r="E17" s="10">
         <v>4</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="18" t="s">
         <v>153</v>
       </c>
@@ -1708,7 +1713,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1725,8 +1730,12 @@
         <v>5</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
@@ -1744,7 +1753,9 @@
       <c r="E23" s="10">
         <v>5</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="G23" s="23" t="s">
         <v>158</v>
       </c>
@@ -1770,7 +1781,7 @@
       <c r="G24" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1884,7 +1895,7 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>162</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -1899,7 +1910,7 @@
       <c r="F30" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>165</v>
       </c>
       <c r="H30" s="1" t="s">

--- a/doc/Other/题库.xlsx
+++ b/doc/Other/题库.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF3CD20-A57A-4635-B4D3-39C2BEE512E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4551D807-3F01-4782-B21C-00F030A98B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17090" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17091" xr2:uid="{9CDEABBE-87B9-481C-A592-33C64C0BE0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="hashing" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
   <si>
     <t>Problem Name</t>
   </si>
@@ -575,6 +575,14 @@
   </si>
   <si>
     <t>题意不好理解。容易实现哈希。degree[len] = degree[len / 2] + 1;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,6 +955,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1268,24 +1279,24 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.0703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.2109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.0703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.2109375" style="13" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="1"/>
+    <col min="9" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -1307,7 +1318,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1327,7 +1338,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1347,7 +1358,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1367,7 +1378,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1387,7 +1398,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1407,7 +1418,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1425,7 +1436,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1445,7 +1456,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1463,7 +1474,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1483,7 +1494,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1507,7 +1518,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1527,7 +1538,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1545,7 +1556,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1569,7 +1580,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1589,7 +1600,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1609,7 +1620,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1625,7 +1636,9 @@
       <c r="E17" s="10">
         <v>4</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>171</v>
+      </c>
       <c r="G17" s="18" t="s">
         <v>153</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1653,7 +1666,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1673,7 +1686,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1693,7 +1706,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1713,7 +1726,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1729,7 +1742,9 @@
       <c r="E22" s="7">
         <v>5</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="30" t="s">
+        <v>171</v>
+      </c>
       <c r="G22" s="25" t="s">
         <v>169</v>
       </c>
@@ -1737,7 +1752,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1761,7 +1776,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1805,7 +1820,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1827,7 +1842,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1851,7 +1866,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1871,7 +1886,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1891,7 +1906,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1917,7 +1932,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1937,7 +1952,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1957,7 +1972,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1973,13 +1988,15 @@
       <c r="E33" s="7">
         <v>6</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16" t="s">
-        <v>152</v>
+      <c r="F33" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1999,7 +2016,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2019,7 +2036,7 @@
       <c r="G35" s="16"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2039,7 +2056,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2059,7 +2076,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2079,7 +2096,7 @@
       <c r="G38" s="18"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2099,7 +2116,7 @@
       <c r="G39" s="16"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2119,7 +2136,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2139,7 +2156,7 @@
       <c r="G41" s="16"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2159,7 +2176,7 @@
       <c r="G42" s="18"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2179,7 +2196,7 @@
       <c r="G43" s="16"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2197,7 +2214,7 @@
       <c r="G44" s="18"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2217,7 +2234,7 @@
       <c r="G45" s="16"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2237,7 +2254,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2257,7 +2274,7 @@
       <c r="G47" s="16"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2277,7 +2294,7 @@
       <c r="G48" s="18"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2297,7 +2314,7 @@
       <c r="G49" s="16"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2317,7 +2334,7 @@
       <c r="G50" s="18"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -2337,7 +2354,7 @@
       <c r="G51" s="16"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2357,7 +2374,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -2377,7 +2394,7 @@
       <c r="G53" s="16"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2397,7 +2414,7 @@
       <c r="G54" s="18"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -2417,7 +2434,7 @@
       <c r="G55" s="16"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2437,7 +2454,7 @@
       <c r="G56" s="18"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -2457,7 +2474,7 @@
       <c r="G57" s="16"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2477,7 +2494,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2497,7 +2514,7 @@
       <c r="G59" s="16"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2517,7 +2534,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2537,7 +2554,7 @@
       <c r="G61" s="16"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2557,7 +2574,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2577,7 +2594,7 @@
       <c r="G63" s="16"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2597,7 +2614,7 @@
       <c r="G64" s="18"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2617,7 +2634,7 @@
       <c r="G65" s="16"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2637,7 +2654,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -2657,7 +2674,7 @@
       <c r="G67" s="16"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2677,7 +2694,7 @@
       <c r="G68" s="18"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -2697,7 +2714,7 @@
       <c r="G69" s="16"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2717,7 +2734,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -2737,7 +2754,7 @@
       <c r="G71" s="16"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -2757,7 +2774,7 @@
       <c r="G72" s="18"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -2777,7 +2794,7 @@
       <c r="G73" s="16"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2797,7 +2814,7 @@
       <c r="G74" s="18"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -2817,7 +2834,7 @@
       <c r="G75" s="16"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2837,7 +2854,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -2857,7 +2874,7 @@
       <c r="G77" s="16"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -2877,22 +2894,22 @@
       <c r="G78" s="20"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="22.75" x14ac:dyDescent="0.35">
       <c r="A80" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="22" t="s">
         <v>157</v>
       </c>
